--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Icam1-Itgb2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Icam1-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.2543990670205</v>
+        <v>28.316642</v>
       </c>
       <c r="H2">
-        <v>28.2543990670205</v>
+        <v>84.949926</v>
       </c>
       <c r="I2">
-        <v>0.2443136137494823</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="J2">
-        <v>0.2443136137494823</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>131.751028136148</v>
+        <v>0.2827783333333333</v>
       </c>
       <c r="N2">
-        <v>131.751028136148</v>
+        <v>0.848335</v>
       </c>
       <c r="O2">
-        <v>0.4909884401023307</v>
+        <v>0.00101236699965667</v>
       </c>
       <c r="P2">
-        <v>0.4909884401023307</v>
+        <v>0.00101236699965667</v>
       </c>
       <c r="Q2">
-        <v>3722.546126448972</v>
+        <v>8.007332830356667</v>
       </c>
       <c r="R2">
-        <v>3722.546126448972</v>
+        <v>72.06599547320999</v>
       </c>
       <c r="S2">
-        <v>0.1199551601106217</v>
+        <v>0.0002412041106686809</v>
       </c>
       <c r="T2">
-        <v>0.1199551601106217</v>
+        <v>0.0002412041106686809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.2543990670205</v>
+        <v>28.316642</v>
       </c>
       <c r="H3">
-        <v>28.2543990670205</v>
+        <v>84.949926</v>
       </c>
       <c r="I3">
-        <v>0.2443136137494823</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="J3">
-        <v>0.2443136137494823</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>136.587322373059</v>
+        <v>0.03123033333333333</v>
       </c>
       <c r="N3">
-        <v>136.587322373059</v>
+        <v>0.093691</v>
       </c>
       <c r="O3">
-        <v>0.5090115598976694</v>
+        <v>0.0001118068646994796</v>
       </c>
       <c r="P3">
-        <v>0.5090115598976694</v>
+        <v>0.0001118068646994796</v>
       </c>
       <c r="Q3">
-        <v>3859.192713824187</v>
+        <v>0.8843381685406667</v>
       </c>
       <c r="R3">
-        <v>3859.192713824187</v>
+        <v>7.959043516866</v>
       </c>
       <c r="S3">
-        <v>0.1243584536388607</v>
+        <v>2.663883292880688E-05</v>
       </c>
       <c r="T3">
-        <v>0.1243584536388607</v>
+        <v>2.663883292880688E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -658,57 +658,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.0402255896116</v>
+        <v>28.316642</v>
       </c>
       <c r="H4">
-        <v>32.0402255896116</v>
+        <v>84.949926</v>
       </c>
       <c r="I4">
-        <v>0.2770493642628414</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="J4">
-        <v>0.2770493642628414</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>131.751028136148</v>
+        <v>133.2267966666667</v>
       </c>
       <c r="N4">
-        <v>131.751028136148</v>
+        <v>399.68039</v>
       </c>
       <c r="O4">
-        <v>0.4909884401023307</v>
+        <v>0.4769616215833459</v>
       </c>
       <c r="P4">
-        <v>0.4909884401023307</v>
+        <v>0.4769616215833458</v>
       </c>
       <c r="Q4">
-        <v>4221.332663145447</v>
+        <v>3772.535506016794</v>
       </c>
       <c r="R4">
-        <v>4221.332663145447</v>
+        <v>33952.81955415114</v>
       </c>
       <c r="S4">
-        <v>0.1360280351907549</v>
+        <v>0.1136397213620345</v>
       </c>
       <c r="T4">
-        <v>0.1360280351907549</v>
+        <v>0.1136397213620345</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.0402255896116</v>
+        <v>28.316642</v>
       </c>
       <c r="H5">
-        <v>32.0402255896116</v>
+        <v>84.949926</v>
       </c>
       <c r="I5">
-        <v>0.2770493642628414</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="J5">
-        <v>0.2770493642628414</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>136.587322373059</v>
+        <v>145.729604</v>
       </c>
       <c r="N5">
-        <v>136.587322373059</v>
+        <v>437.188812</v>
       </c>
       <c r="O5">
-        <v>0.5090115598976694</v>
+        <v>0.5217225811594522</v>
       </c>
       <c r="P5">
-        <v>0.5090115598976694</v>
+        <v>0.5217225811594521</v>
       </c>
       <c r="Q5">
-        <v>4376.288621513814</v>
+        <v>4126.573025269768</v>
       </c>
       <c r="R5">
-        <v>4376.288621513814</v>
+        <v>37139.15722742791</v>
       </c>
       <c r="S5">
-        <v>0.1410213290720865</v>
+        <v>0.124304359236336</v>
       </c>
       <c r="T5">
-        <v>0.1410213290720865</v>
+        <v>0.124304359236336</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.9072500677621</v>
+        <v>28.316642</v>
       </c>
       <c r="H6">
-        <v>18.9072500677621</v>
+        <v>84.949926</v>
       </c>
       <c r="I6">
-        <v>0.1634895358829948</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="J6">
-        <v>0.1634895358829948</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>131.751028136148</v>
+        <v>0.053525</v>
       </c>
       <c r="N6">
-        <v>131.751028136148</v>
+        <v>0.160575</v>
       </c>
       <c r="O6">
-        <v>0.4909884401023307</v>
+        <v>0.000191623392845833</v>
       </c>
       <c r="P6">
-        <v>0.4909884401023307</v>
+        <v>0.000191623392845833</v>
       </c>
       <c r="Q6">
-        <v>2491.049635654911</v>
+        <v>1.51564826305</v>
       </c>
       <c r="R6">
-        <v>2491.049635654911</v>
+        <v>13.64083436745</v>
       </c>
       <c r="S6">
-        <v>0.08027147219624563</v>
+        <v>4.565572571050757E-05</v>
       </c>
       <c r="T6">
-        <v>0.08027147219624563</v>
+        <v>4.565572571050757E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.9072500677621</v>
+        <v>32.208719</v>
       </c>
       <c r="H7">
-        <v>18.9072500677621</v>
+        <v>96.62615700000001</v>
       </c>
       <c r="I7">
-        <v>0.1634895358829948</v>
+        <v>0.2710057011792882</v>
       </c>
       <c r="J7">
-        <v>0.1634895358829948</v>
+        <v>0.2710057011792883</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>136.587322373059</v>
+        <v>0.2827783333333333</v>
       </c>
       <c r="N7">
-        <v>136.587322373059</v>
+        <v>0.848335</v>
       </c>
       <c r="O7">
-        <v>0.5090115598976694</v>
+        <v>0.00101236699965667</v>
       </c>
       <c r="P7">
-        <v>0.5090115598976694</v>
+        <v>0.00101236699965667</v>
       </c>
       <c r="Q7">
-        <v>2582.490660193464</v>
+        <v>9.107927877621666</v>
       </c>
       <c r="R7">
-        <v>2582.490660193464</v>
+        <v>81.97135089859501</v>
       </c>
       <c r="S7">
-        <v>0.08321806368674918</v>
+        <v>0.0002743572285927281</v>
       </c>
       <c r="T7">
-        <v>0.08321806368674918</v>
+        <v>0.0002743572285927281</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>36.1718308203635</v>
+        <v>32.208719</v>
       </c>
       <c r="H8">
-        <v>36.1718308203635</v>
+        <v>96.62615700000001</v>
       </c>
       <c r="I8">
-        <v>0.3127750366481187</v>
+        <v>0.2710057011792882</v>
       </c>
       <c r="J8">
-        <v>0.3127750366481187</v>
+        <v>0.2710057011792883</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>131.751028136148</v>
+        <v>0.03123033333333333</v>
       </c>
       <c r="N8">
-        <v>131.751028136148</v>
+        <v>0.093691</v>
       </c>
       <c r="O8">
-        <v>0.4909884401023307</v>
+        <v>0.0001118068646994796</v>
       </c>
       <c r="P8">
-        <v>0.4909884401023307</v>
+        <v>0.0001118068646994796</v>
       </c>
       <c r="Q8">
-        <v>4765.675900149697</v>
+        <v>1.005889030609667</v>
       </c>
       <c r="R8">
-        <v>4765.675900149697</v>
+        <v>9.053001275487</v>
       </c>
       <c r="S8">
-        <v>0.1535689273468091</v>
+        <v>3.030029776454029E-05</v>
       </c>
       <c r="T8">
-        <v>0.1535689273468091</v>
+        <v>3.030029776454029E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>36.1718308203635</v>
+        <v>32.208719</v>
       </c>
       <c r="H9">
-        <v>36.1718308203635</v>
+        <v>96.62615700000001</v>
       </c>
       <c r="I9">
-        <v>0.3127750366481187</v>
+        <v>0.2710057011792882</v>
       </c>
       <c r="J9">
-        <v>0.3127750366481187</v>
+        <v>0.2710057011792883</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>136.587322373059</v>
+        <v>133.2267966666667</v>
       </c>
       <c r="N9">
-        <v>136.587322373059</v>
+        <v>399.68039</v>
       </c>
       <c r="O9">
-        <v>0.5090115598976694</v>
+        <v>0.4769616215833459</v>
       </c>
       <c r="P9">
-        <v>0.5090115598976694</v>
+        <v>0.4769616215833458</v>
       </c>
       <c r="Q9">
-        <v>4940.613517084741</v>
+        <v>4291.064457106804</v>
       </c>
       <c r="R9">
-        <v>4940.613517084741</v>
+        <v>38619.58011396123</v>
       </c>
       <c r="S9">
-        <v>0.1592061093013097</v>
+        <v>0.129259318692805</v>
       </c>
       <c r="T9">
-        <v>0.1592061093013097</v>
+        <v>0.129259318692805</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,1047 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.274369212109465</v>
+        <v>32.208719</v>
       </c>
       <c r="H10">
-        <v>0.274369212109465</v>
+        <v>96.62615700000001</v>
       </c>
       <c r="I10">
-        <v>0.002372449456562812</v>
+        <v>0.2710057011792882</v>
       </c>
       <c r="J10">
-        <v>0.002372449456562812</v>
+        <v>0.2710057011792883</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>131.751028136148</v>
+        <v>145.729604</v>
       </c>
       <c r="N10">
-        <v>131.751028136148</v>
+        <v>437.188812</v>
       </c>
       <c r="O10">
-        <v>0.4909884401023307</v>
+        <v>0.5217225811594522</v>
       </c>
       <c r="P10">
-        <v>0.4909884401023307</v>
+        <v>0.5217225811594521</v>
       </c>
       <c r="Q10">
-        <v>36.14842578432688</v>
+        <v>4693.763865217276</v>
       </c>
       <c r="R10">
-        <v>36.14842578432688</v>
+        <v>42243.87478695549</v>
       </c>
       <c r="S10">
-        <v>0.001164845257899397</v>
+        <v>0.1413897939281855</v>
       </c>
       <c r="T10">
-        <v>0.001164845257899397</v>
+        <v>0.1413897939281855</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>32.208719</v>
+      </c>
+      <c r="H11">
+        <v>96.62615700000001</v>
+      </c>
+      <c r="I11">
+        <v>0.2710057011792882</v>
+      </c>
+      <c r="J11">
+        <v>0.2710057011792883</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.053525</v>
+      </c>
+      <c r="N11">
+        <v>0.160575</v>
+      </c>
+      <c r="O11">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="P11">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="Q11">
+        <v>1.723971684475</v>
+      </c>
+      <c r="R11">
+        <v>15.515745160275</v>
+      </c>
+      <c r="S11">
+        <v>5.193103194053919E-05</v>
+      </c>
+      <c r="T11">
+        <v>5.193103194053919E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>19.02080233333333</v>
+      </c>
+      <c r="H12">
+        <v>57.06240699999999</v>
+      </c>
+      <c r="I12">
+        <v>0.1600419399895302</v>
+      </c>
+      <c r="J12">
+        <v>0.1600419399895302</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.2827783333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.848335</v>
+      </c>
+      <c r="O12">
+        <v>0.00101236699965667</v>
+      </c>
+      <c r="P12">
+        <v>0.00101236699965667</v>
+      </c>
+      <c r="Q12">
+        <v>5.378670782482777</v>
+      </c>
+      <c r="R12">
+        <v>48.40803704234499</v>
+      </c>
+      <c r="S12">
+        <v>0.0001620211786064335</v>
+      </c>
+      <c r="T12">
+        <v>0.0001620211786064335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>19.02080233333333</v>
+      </c>
+      <c r="H13">
+        <v>57.06240699999999</v>
+      </c>
+      <c r="I13">
+        <v>0.1600419399895302</v>
+      </c>
+      <c r="J13">
+        <v>0.1600419399895302</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03123033333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.093691</v>
+      </c>
+      <c r="O13">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="P13">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="Q13">
+        <v>0.5940259971374444</v>
+      </c>
+      <c r="R13">
+        <v>5.346233974236999</v>
+      </c>
+      <c r="S13">
+        <v>1.789378753065164E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.789378753065164E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>19.02080233333333</v>
+      </c>
+      <c r="H14">
+        <v>57.06240699999999</v>
+      </c>
+      <c r="I14">
+        <v>0.1600419399895302</v>
+      </c>
+      <c r="J14">
+        <v>0.1600419399895302</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>133.2267966666667</v>
+      </c>
+      <c r="N14">
+        <v>399.68039</v>
+      </c>
+      <c r="O14">
+        <v>0.4769616215833459</v>
+      </c>
+      <c r="P14">
+        <v>0.4769616215833458</v>
+      </c>
+      <c r="Q14">
+        <v>2534.080564899859</v>
+      </c>
+      <c r="R14">
+        <v>22806.72508409873</v>
+      </c>
+      <c r="S14">
+        <v>0.07633386321875087</v>
+      </c>
+      <c r="T14">
+        <v>0.07633386321875084</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.274369212109465</v>
-      </c>
-      <c r="H11">
-        <v>0.274369212109465</v>
-      </c>
-      <c r="I11">
-        <v>0.002372449456562812</v>
-      </c>
-      <c r="J11">
-        <v>0.002372449456562812</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>136.587322373059</v>
-      </c>
-      <c r="N11">
-        <v>136.587322373059</v>
-      </c>
-      <c r="O11">
-        <v>0.5090115598976694</v>
-      </c>
-      <c r="P11">
-        <v>0.5090115598976694</v>
-      </c>
-      <c r="Q11">
-        <v>37.4753560236377</v>
-      </c>
-      <c r="R11">
-        <v>37.4753560236377</v>
-      </c>
-      <c r="S11">
-        <v>0.001207604198663415</v>
-      </c>
-      <c r="T11">
-        <v>0.001207604198663415</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>19.02080233333333</v>
+      </c>
+      <c r="H15">
+        <v>57.06240699999999</v>
+      </c>
+      <c r="I15">
+        <v>0.1600419399895302</v>
+      </c>
+      <c r="J15">
+        <v>0.1600419399895302</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>145.729604</v>
+      </c>
+      <c r="N15">
+        <v>437.188812</v>
+      </c>
+      <c r="O15">
+        <v>0.5217225811594522</v>
+      </c>
+      <c r="P15">
+        <v>0.5217225811594521</v>
+      </c>
+      <c r="Q15">
+        <v>2771.893991798942</v>
+      </c>
+      <c r="R15">
+        <v>24947.04592619048</v>
+      </c>
+      <c r="S15">
+        <v>0.08349749402510385</v>
+      </c>
+      <c r="T15">
+        <v>0.08349749402510384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>19.02080233333333</v>
+      </c>
+      <c r="H16">
+        <v>57.06240699999999</v>
+      </c>
+      <c r="I16">
+        <v>0.1600419399895302</v>
+      </c>
+      <c r="J16">
+        <v>0.1600419399895302</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.053525</v>
+      </c>
+      <c r="N16">
+        <v>0.160575</v>
+      </c>
+      <c r="O16">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="P16">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="Q16">
+        <v>1.018088444891666</v>
+      </c>
+      <c r="R16">
+        <v>9.162796004024999</v>
+      </c>
+      <c r="S16">
+        <v>3.066777953842299E-05</v>
+      </c>
+      <c r="T16">
+        <v>3.066777953842298E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>38.93425766666667</v>
+      </c>
+      <c r="H17">
+        <v>116.802773</v>
+      </c>
+      <c r="I17">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="J17">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.2827783333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.848335</v>
+      </c>
+      <c r="O17">
+        <v>0.00101236699965667</v>
+      </c>
+      <c r="P17">
+        <v>0.00101236699965667</v>
+      </c>
+      <c r="Q17">
+        <v>11.00976449255055</v>
+      </c>
+      <c r="R17">
+        <v>99.08788043295499</v>
+      </c>
+      <c r="S17">
+        <v>0.0003316460685922294</v>
+      </c>
+      <c r="T17">
+        <v>0.0003316460685922294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>38.93425766666667</v>
+      </c>
+      <c r="H18">
+        <v>116.802773</v>
+      </c>
+      <c r="I18">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="J18">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.03123033333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.093691</v>
+      </c>
+      <c r="O18">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="P18">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="Q18">
+        <v>1.215929845015889</v>
+      </c>
+      <c r="R18">
+        <v>10.943368605143</v>
+      </c>
+      <c r="S18">
+        <v>3.662733685687207E-05</v>
+      </c>
+      <c r="T18">
+        <v>3.662733685687207E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>38.93425766666667</v>
+      </c>
+      <c r="H19">
+        <v>116.802773</v>
+      </c>
+      <c r="I19">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="J19">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>133.2267966666667</v>
+      </c>
+      <c r="N19">
+        <v>399.68039</v>
+      </c>
+      <c r="O19">
+        <v>0.4769616215833459</v>
+      </c>
+      <c r="P19">
+        <v>0.4769616215833458</v>
+      </c>
+      <c r="Q19">
+        <v>5187.086429524608</v>
+      </c>
+      <c r="R19">
+        <v>46683.77786572147</v>
+      </c>
+      <c r="S19">
+        <v>0.1562501017132489</v>
+      </c>
+      <c r="T19">
+        <v>0.1562501017132489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>38.93425766666667</v>
+      </c>
+      <c r="H20">
+        <v>116.802773</v>
+      </c>
+      <c r="I20">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="J20">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>145.729604</v>
+      </c>
+      <c r="N20">
+        <v>437.188812</v>
+      </c>
+      <c r="O20">
+        <v>0.5217225811594522</v>
+      </c>
+      <c r="P20">
+        <v>0.5217225811594521</v>
+      </c>
+      <c r="Q20">
+        <v>5673.873951797297</v>
+      </c>
+      <c r="R20">
+        <v>51064.86556617568</v>
+      </c>
+      <c r="S20">
+        <v>0.1709135550605684</v>
+      </c>
+      <c r="T20">
+        <v>0.1709135550605684</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>38.93425766666667</v>
+      </c>
+      <c r="H21">
+        <v>116.802773</v>
+      </c>
+      <c r="I21">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="J21">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.053525</v>
+      </c>
+      <c r="N21">
+        <v>0.160575</v>
+      </c>
+      <c r="O21">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="P21">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="Q21">
+        <v>2.083956141608333</v>
+      </c>
+      <c r="R21">
+        <v>18.755605274475</v>
+      </c>
+      <c r="S21">
+        <v>6.277480884815224E-05</v>
+      </c>
+      <c r="T21">
+        <v>6.277480884815225E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3684403333333333</v>
+      </c>
+      <c r="H22">
+        <v>1.105321</v>
+      </c>
+      <c r="I22">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="J22">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.2827783333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.848335</v>
+      </c>
+      <c r="O22">
+        <v>0.00101236699965667</v>
+      </c>
+      <c r="P22">
+        <v>0.00101236699965667</v>
+      </c>
+      <c r="Q22">
+        <v>0.1041869433927778</v>
+      </c>
+      <c r="R22">
+        <v>0.937682490535</v>
+      </c>
+      <c r="S22">
+        <v>3.138413196597923E-06</v>
+      </c>
+      <c r="T22">
+        <v>3.138413196597923E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3684403333333333</v>
+      </c>
+      <c r="H23">
+        <v>1.105321</v>
+      </c>
+      <c r="I23">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="J23">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.03123033333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.093691</v>
+      </c>
+      <c r="O23">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="P23">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="Q23">
+        <v>0.01150651442344444</v>
+      </c>
+      <c r="R23">
+        <v>0.103558629811</v>
+      </c>
+      <c r="S23">
+        <v>3.466096186087525E-07</v>
+      </c>
+      <c r="T23">
+        <v>3.466096186087525E-07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3684403333333333</v>
+      </c>
+      <c r="H24">
+        <v>1.105321</v>
+      </c>
+      <c r="I24">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="J24">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>133.2267966666667</v>
+      </c>
+      <c r="N24">
+        <v>399.68039</v>
+      </c>
+      <c r="O24">
+        <v>0.4769616215833459</v>
+      </c>
+      <c r="P24">
+        <v>0.4769616215833458</v>
+      </c>
+      <c r="Q24">
+        <v>49.08612537279889</v>
+      </c>
+      <c r="R24">
+        <v>441.77512835519</v>
+      </c>
+      <c r="S24">
+        <v>0.001478616596506574</v>
+      </c>
+      <c r="T24">
+        <v>0.001478616596506574</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3684403333333333</v>
+      </c>
+      <c r="H25">
+        <v>1.105321</v>
+      </c>
+      <c r="I25">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="J25">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>145.729604</v>
+      </c>
+      <c r="N25">
+        <v>437.188812</v>
+      </c>
+      <c r="O25">
+        <v>0.5217225811594522</v>
+      </c>
+      <c r="P25">
+        <v>0.5217225811594521</v>
+      </c>
+      <c r="Q25">
+        <v>53.69266387429466</v>
+      </c>
+      <c r="R25">
+        <v>483.233974868652</v>
+      </c>
+      <c r="S25">
+        <v>0.001617378909258451</v>
+      </c>
+      <c r="T25">
+        <v>0.001617378909258451</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3684403333333333</v>
+      </c>
+      <c r="H26">
+        <v>1.105321</v>
+      </c>
+      <c r="I26">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="J26">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.053525</v>
+      </c>
+      <c r="N26">
+        <v>0.160575</v>
+      </c>
+      <c r="O26">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="P26">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="Q26">
+        <v>0.01972076884166666</v>
+      </c>
+      <c r="R26">
+        <v>0.177486919575</v>
+      </c>
+      <c r="S26">
+        <v>5.940468082110387E-07</v>
+      </c>
+      <c r="T26">
+        <v>5.940468082110387E-07</v>
       </c>
     </row>
   </sheetData>
